--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Spon1-App.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Spon1-App.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.633495424689542</v>
+        <v>0.717901</v>
       </c>
       <c r="H2">
-        <v>0.633495424689542</v>
+        <v>2.153703</v>
       </c>
       <c r="I2">
-        <v>0.03439591295271988</v>
+        <v>0.0380297505351077</v>
       </c>
       <c r="J2">
-        <v>0.03439591295271988</v>
+        <v>0.0380297505351077</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>99.27646669230489</v>
+        <v>104.794801</v>
       </c>
       <c r="N2">
-        <v>99.27646669230489</v>
+        <v>314.384403</v>
       </c>
       <c r="O2">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="P2">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="Q2">
-        <v>62.89118742891886</v>
+        <v>75.232292432701</v>
       </c>
       <c r="R2">
-        <v>62.89118742891886</v>
+        <v>677.0906318943091</v>
       </c>
       <c r="S2">
-        <v>0.01294229988364065</v>
+        <v>0.0147267211874109</v>
       </c>
       <c r="T2">
-        <v>0.01294229988364065</v>
+        <v>0.0147267211874109</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.633495424689542</v>
+        <v>0.717901</v>
       </c>
       <c r="H3">
-        <v>0.633495424689542</v>
+        <v>2.153703</v>
       </c>
       <c r="I3">
-        <v>0.03439591295271988</v>
+        <v>0.0380297505351077</v>
       </c>
       <c r="J3">
-        <v>0.03439591295271988</v>
+        <v>0.0380297505351077</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>136.320576629711</v>
+        <v>136.674446</v>
       </c>
       <c r="N3">
-        <v>136.320576629711</v>
+        <v>410.023338</v>
       </c>
       <c r="O3">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="P3">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="Q3">
-        <v>86.35846158596203</v>
+        <v>98.11872145784599</v>
       </c>
       <c r="R3">
-        <v>86.35846158596203</v>
+        <v>883.068493120614</v>
       </c>
       <c r="S3">
-        <v>0.01777160128513407</v>
+        <v>0.01920673965195894</v>
       </c>
       <c r="T3">
-        <v>0.01777160128513407</v>
+        <v>0.01920673965195894</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.633495424689542</v>
+        <v>0.717901</v>
       </c>
       <c r="H4">
-        <v>0.633495424689542</v>
+        <v>2.153703</v>
       </c>
       <c r="I4">
-        <v>0.03439591295271988</v>
+        <v>0.0380297505351077</v>
       </c>
       <c r="J4">
-        <v>0.03439591295271988</v>
+        <v>0.0380297505351077</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.2435983956416</v>
+        <v>29.14904533333333</v>
       </c>
       <c r="N4">
-        <v>28.2435983956416</v>
+        <v>87.447136</v>
       </c>
       <c r="O4">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="P4">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="Q4">
-        <v>17.89219036040785</v>
+        <v>20.92612879384533</v>
       </c>
       <c r="R4">
-        <v>17.89219036040785</v>
+        <v>188.335159144608</v>
       </c>
       <c r="S4">
-        <v>0.003682011783945158</v>
+        <v>0.00409628969573787</v>
       </c>
       <c r="T4">
-        <v>0.003682011783945158</v>
+        <v>0.00409628969573787</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.7089966477552</v>
+        <v>13.91986866666667</v>
       </c>
       <c r="H5">
-        <v>13.7089966477552</v>
+        <v>41.75960600000001</v>
       </c>
       <c r="I5">
-        <v>0.744336007787904</v>
+        <v>0.7373845876726675</v>
       </c>
       <c r="J5">
-        <v>0.744336007787904</v>
+        <v>0.7373845876726675</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>99.27646669230489</v>
+        <v>104.794801</v>
       </c>
       <c r="N5">
-        <v>99.27646669230489</v>
+        <v>314.384403</v>
       </c>
       <c r="O5">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="P5">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="Q5">
-        <v>1360.980749085789</v>
+        <v>1458.729866869469</v>
       </c>
       <c r="R5">
-        <v>1360.980749085789</v>
+        <v>13128.56880182522</v>
       </c>
       <c r="S5">
-        <v>0.2800745495613068</v>
+        <v>0.2855463703482473</v>
       </c>
       <c r="T5">
-        <v>0.2800745495613068</v>
+        <v>0.2855463703482473</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.7089966477552</v>
+        <v>13.91986866666667</v>
       </c>
       <c r="H6">
-        <v>13.7089966477552</v>
+        <v>41.75960600000001</v>
       </c>
       <c r="I6">
-        <v>0.744336007787904</v>
+        <v>0.7373845876726675</v>
       </c>
       <c r="J6">
-        <v>0.744336007787904</v>
+        <v>0.7373845876726675</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>136.320576629711</v>
+        <v>136.674446</v>
       </c>
       <c r="N6">
-        <v>136.320576629711</v>
+        <v>410.023338</v>
       </c>
       <c r="O6">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="P6">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="Q6">
-        <v>1868.818328036764</v>
+        <v>1902.490338409425</v>
       </c>
       <c r="R6">
-        <v>1868.818328036764</v>
+        <v>17122.41304568483</v>
       </c>
       <c r="S6">
-        <v>0.3845818185072788</v>
+        <v>0.3724124823201632</v>
       </c>
       <c r="T6">
-        <v>0.3845818185072788</v>
+        <v>0.3724124823201632</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.7089966477552</v>
+        <v>13.91986866666667</v>
       </c>
       <c r="H7">
-        <v>13.7089966477552</v>
+        <v>41.75960600000001</v>
       </c>
       <c r="I7">
-        <v>0.744336007787904</v>
+        <v>0.7373845876726675</v>
       </c>
       <c r="J7">
-        <v>0.744336007787904</v>
+        <v>0.7373845876726675</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.2435983956416</v>
+        <v>29.14904533333333</v>
       </c>
       <c r="N7">
-        <v>28.2435983956416</v>
+        <v>87.447136</v>
       </c>
       <c r="O7">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="P7">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="Q7">
-        <v>387.1913957263948</v>
+        <v>405.750882798713</v>
       </c>
       <c r="R7">
-        <v>387.1913957263948</v>
+        <v>3651.757945188417</v>
       </c>
       <c r="S7">
-        <v>0.07967963971931841</v>
+        <v>0.07942573500425702</v>
       </c>
       <c r="T7">
-        <v>0.07967963971931841</v>
+        <v>0.07942573500425702</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.07526080303019</v>
+        <v>4.239582666666666</v>
       </c>
       <c r="H8">
-        <v>4.07526080303019</v>
+        <v>12.718748</v>
       </c>
       <c r="I8">
-        <v>0.2212680792593761</v>
+        <v>0.2245856617922248</v>
       </c>
       <c r="J8">
-        <v>0.2212680792593761</v>
+        <v>0.2245856617922248</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>99.27646669230489</v>
+        <v>104.794801</v>
       </c>
       <c r="N8">
-        <v>99.27646669230489</v>
+        <v>314.384403</v>
       </c>
       <c r="O8">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="P8">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="Q8">
-        <v>404.5774933744823</v>
+        <v>444.2862218763826</v>
       </c>
       <c r="R8">
-        <v>404.5774933744823</v>
+        <v>3998.575996887444</v>
       </c>
       <c r="S8">
-        <v>0.0832575033082692</v>
+        <v>0.08696902759987794</v>
       </c>
       <c r="T8">
-        <v>0.0832575033082692</v>
+        <v>0.08696902759987796</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.07526080303019</v>
+        <v>4.239582666666666</v>
       </c>
       <c r="H9">
-        <v>4.07526080303019</v>
+        <v>12.718748</v>
       </c>
       <c r="I9">
-        <v>0.2212680792593761</v>
+        <v>0.2245856617922248</v>
       </c>
       <c r="J9">
-        <v>0.2212680792593761</v>
+        <v>0.2245856617922248</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>136.320576629711</v>
+        <v>136.674446</v>
       </c>
       <c r="N9">
-        <v>136.320576629711</v>
+        <v>410.023338</v>
       </c>
       <c r="O9">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="P9">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="Q9">
-        <v>555.5419025855347</v>
+        <v>579.4426122378692</v>
       </c>
       <c r="R9">
-        <v>555.5419025855347</v>
+        <v>5214.983510140823</v>
       </c>
       <c r="S9">
-        <v>0.114324282862628</v>
+        <v>0.1134258909120122</v>
       </c>
       <c r="T9">
-        <v>0.114324282862628</v>
+        <v>0.1134258909120122</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.07526080303019</v>
+        <v>4.239582666666666</v>
       </c>
       <c r="H10">
-        <v>4.07526080303019</v>
+        <v>12.718748</v>
       </c>
       <c r="I10">
-        <v>0.2212680792593761</v>
+        <v>0.2245856617922248</v>
       </c>
       <c r="J10">
-        <v>0.2212680792593761</v>
+        <v>0.2245856617922248</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.2435983956416</v>
+        <v>29.14904533333333</v>
       </c>
       <c r="N10">
-        <v>28.2435983956416</v>
+        <v>87.447136</v>
       </c>
       <c r="O10">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="P10">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="Q10">
-        <v>115.1000294782846</v>
+        <v>123.5797873450809</v>
       </c>
       <c r="R10">
-        <v>115.1000294782846</v>
+        <v>1112.218086105728</v>
       </c>
       <c r="S10">
-        <v>0.023686293088479</v>
+        <v>0.02419074328033468</v>
       </c>
       <c r="T10">
-        <v>0.023686293088479</v>
+        <v>0.02419074328033468</v>
       </c>
     </row>
   </sheetData>
